--- a/1차_프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241210).xlsx
+++ b/1차_프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241210).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="143">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,10 +518,6 @@
   </si>
   <si>
     <t>피드백 &amp; To-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -730,12 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 서브메뉴 밑줄 애니메이션 추가
-2. 메인 페이지 구성 시작
-- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행율(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,26 +734,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
-2. 자바 스크립트를 넣는 시간이 필요하므로 일정을 최대한 앞당겨서 작업 진행할 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 밑줄 애니메이션 질문하기
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 밑줄 애니메이션 질문하기(12/10완료)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가하기
 3. 메인페이지 시작하기 -&gt; 룩북 직전까지 마치기
 4. 메인페이지 인디케이터 어떻게 할지 구상하기
 (서브페이지 인디케이터는 기존에 있는 것 리모델링)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[서브메뉴 마무리]
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거 - 서브메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 하위 카테고리 양방향 오버 밑줄 애니메이션
+2. 클릭시 해당 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[서브메뉴 추가작업]
+1. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가
+[메인페이지 시작]
+1. 메인페이지 html , css 완료
+2. about us 진행중
+- html 구조 생성 및 배경 제품 이미지 넣는 중
+- 해당 페이지에 들어가는 소스 이름 업데이트 완료
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 1. 서브메뉴 밑줄 애니메이션 피드백
 - 애니메이션을 줄 때에는 해당 요소에 변하는 형태가 보이는 것이 중요함.
 - 가상요소에  hover 를 주는 것이 아니라 해당 태그에 주어야 함. 
-2. 서브메뉴 오른쪽 이미지 좌측 아래 텍스트 추가
-[메인페이지 시작]
-1.</t>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백
+&amp; 질문 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 미디어쿼리를 미리 해야하는 내용에 따라 파트별 작성 이후 미디어쿼리 진행
+2. 자바 스크립트를 넣는 시간이 필요하므로 일정을 최대한 앞당겨서 작업 진행할 것
+3. 로딩 애니메이션은 메인페이지 완성 이후 진행
+4. 질문
+- 밑줄 애니메이션 오버 아웃시 밑줄이 오른쪽으로 가도록 변경하기
+- 상단영역 탑메뉴 SVG 색깔 바꾸기 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +816,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,11 +973,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1441,6 +1475,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1460,7 +1503,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,6 +1550,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,29 +1571,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,15 +1665,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>942974</xdr:colOff>
+          <xdr:colOff>942975</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>120098</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>1673087</xdr:colOff>
+          <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>397566</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1696,13 +1730,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1760,13 +1794,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1824,13 +1858,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1888,13 +1922,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1952,13 +1986,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2016,13 +2050,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2080,13 +2114,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2405,13 +2439,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AD64"/>
+  <dimension ref="B1:AD65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="4" bestFit="1" customWidth="1"/>
@@ -2424,19 +2458,19 @@
     <col min="9" max="30" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1"/>
-    <row r="2" spans="2:30" ht="54.75" customHeight="1">
-      <c r="B2" s="41" t="s">
+    <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:30" ht="26.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:30" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
@@ -2452,61 +2486,61 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="32">
+      <c r="G4" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="35">
         <v>45630</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="34"/>
-    </row>
-    <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="59"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="37"/>
+    </row>
+    <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="49"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="20">
         <f>I4</f>
         <v>45630</v>
@@ -2596,14 +2630,14 @@
         <v>45651</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B6" s="47"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="60"/>
+    <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="50"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="21">
         <f>I5</f>
         <v>45630</v>
@@ -2693,7 +2727,7 @@
         <v>45651</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="38.25" customHeight="1" thickTop="1">
+    <row r="7" spans="2:30" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2711,7 +2745,7 @@
       <c r="G7" s="18">
         <v>50</v>
       </c>
-      <c r="H7" s="63"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="2" t="s">
         <v>108</v>
       </c>
@@ -2737,7 +2771,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="2:30" ht="49.5" hidden="1">
+    <row r="8" spans="2:30" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
@@ -2751,7 +2785,7 @@
         <v>45635</v>
       </c>
       <c r="F8" s="24">
-        <f t="shared" ref="F8:F64" si="1">IF(E8="","",E8+1-D8)</f>
+        <f t="shared" ref="F8:F65" si="1">IF(E8="","",E8+1-D8)</f>
         <v>6</v>
       </c>
       <c r="G8" s="19">
@@ -2781,7 +2815,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="2:30" ht="33" hidden="1">
+    <row r="9" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>47</v>
       </c>
@@ -2825,7 +2859,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="2:30" ht="66" hidden="1">
+    <row r="10" spans="2:30" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2869,12 +2903,12 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="2:30" ht="33" hidden="1">
+    <row r="11" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D11" s="12">
         <v>45630</v>
@@ -2883,11 +2917,11 @@
         <v>45635</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F11" si="2">IF(E11="","",E11+1-D11)</f>
         <v>6</v>
       </c>
       <c r="G11" s="19">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="1"/>
@@ -2913,12 +2947,12 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="2:30" ht="26.25" hidden="1">
+    <row r="12" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="12">
         <v>45630</v>
@@ -2957,12 +2991,12 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="2:30" ht="148.5" hidden="1">
+    <row r="13" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="12">
         <v>45630</v>
@@ -3001,12 +3035,12 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="2:30" ht="33" hidden="1">
+    <row r="14" spans="2:30" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="12">
         <v>45630</v>
@@ -3045,25 +3079,25 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="2:30" ht="37.5">
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
+    <row r="15" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="12">
-        <v>45636</v>
+        <v>45630</v>
       </c>
       <c r="E15" s="12">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="F15" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="1"/>
@@ -3089,11 +3123,13 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="2:30" ht="31.5">
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1"/>
+    <row r="16" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D16" s="12">
         <v>45636</v>
       </c>
@@ -3131,9 +3167,9 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="2:30" ht="31.5">
+    <row r="17" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="12">
@@ -3173,13 +3209,11 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="2:30" ht="33">
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>59</v>
-      </c>
+    <row r="18" spans="2:30" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="12">
         <v>45636</v>
       </c>
@@ -3217,12 +3251,12 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="49.5">
-      <c r="B19" s="8" t="s">
-        <v>19</v>
+    <row r="19" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="12">
         <v>45636</v>
@@ -3235,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="1"/>
@@ -3261,12 +3295,12 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="2:30" ht="33">
-      <c r="B20" s="7" t="s">
-        <v>10</v>
+    <row r="20" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D20" s="12">
         <v>45636</v>
@@ -3305,12 +3339,12 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="2:30" ht="33">
+    <row r="21" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="12">
         <v>45636</v>
@@ -3349,12 +3383,12 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="2:30" ht="49.5">
-      <c r="B22" s="8" t="s">
-        <v>67</v>
+    <row r="22" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D22" s="12">
         <v>45636</v>
@@ -3393,12 +3427,12 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="2:30" ht="33">
+    <row r="23" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D23" s="12">
         <v>45636</v>
@@ -3437,12 +3471,12 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="2:30" ht="26.25">
+    <row r="24" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="12">
         <v>45636</v>
@@ -3481,12 +3515,12 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="2:30" ht="33">
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>103</v>
+    <row r="25" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D25" s="12">
         <v>45636</v>
@@ -3525,12 +3559,12 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="33">
-      <c r="B26" s="8" t="s">
-        <v>22</v>
+    <row r="26" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12">
         <v>45636</v>
@@ -3569,12 +3603,12 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="2:30" ht="33">
+    <row r="27" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="12">
         <v>45636</v>
@@ -3613,12 +3647,12 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="2:30" ht="26.25">
+    <row r="28" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D28" s="12">
         <v>45636</v>
@@ -3657,12 +3691,12 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="2:30" ht="66">
-      <c r="B29" s="7" t="s">
-        <v>28</v>
+    <row r="29" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="12">
         <v>45636</v>
@@ -3701,12 +3735,12 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="2:30" ht="33">
-      <c r="B30" s="8" t="s">
-        <v>26</v>
+    <row r="30" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D30" s="12">
         <v>45636</v>
@@ -3745,12 +3779,12 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="2:30" ht="33">
+    <row r="31" spans="2:30" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12">
         <v>45636</v>
@@ -3789,11 +3823,13 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="2:30" ht="37.5">
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1"/>
+    <row r="32" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="D32" s="12">
         <v>45636</v>
       </c>
@@ -3831,13 +3867,11 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="2:30" ht="33" hidden="1" customHeight="1">
-      <c r="B33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>71</v>
-      </c>
+    <row r="33" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="12">
         <v>45636</v>
       </c>
@@ -3875,12 +3909,12 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="2:30" ht="31.5" hidden="1" customHeight="1">
+    <row r="34" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="12">
         <v>45636</v>
@@ -3919,22 +3953,22 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="2:30" ht="37.5">
-      <c r="B35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>73</v>
+    <row r="35" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D35" s="12">
-        <v>45639</v>
+        <v>45636</v>
       </c>
       <c r="E35" s="12">
-        <v>45642</v>
+        <v>45638</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="19">
         <v>0</v>
@@ -3963,12 +3997,12 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="2:30" ht="66" hidden="1" customHeight="1">
-      <c r="B36" s="7" t="s">
-        <v>33</v>
+    <row r="36" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="12">
         <v>45639</v>
@@ -4007,12 +4041,12 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="31.5" hidden="1" customHeight="1">
+    <row r="37" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D37" s="12">
         <v>45639</v>
@@ -4051,11 +4085,13 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="2:30" ht="31.5" hidden="1" customHeight="1">
+    <row r="38" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D38" s="12">
         <v>45639</v>
       </c>
@@ -4093,13 +4129,11 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="2:30" ht="26.25" hidden="1" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
-      </c>
+    <row r="39" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="12">
         <v>45639</v>
       </c>
@@ -4137,12 +4171,12 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="2:30" ht="26.25" hidden="1" customHeight="1">
+    <row r="40" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D40" s="12">
         <v>45639</v>
@@ -4181,12 +4215,12 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="2:30" ht="26.25" hidden="1" customHeight="1">
+    <row r="41" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="12">
         <v>45639</v>
@@ -4225,22 +4259,22 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="2:30" ht="37.5">
-      <c r="B42" s="6" t="s">
-        <v>32</v>
+    <row r="42" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D42" s="12">
-        <v>45643</v>
+        <v>45639</v>
       </c>
       <c r="E42" s="12">
-        <v>45644</v>
+        <v>45642</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="19">
         <v>0</v>
@@ -4269,11 +4303,13 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="2:30" ht="31.5" hidden="1" customHeight="1">
-      <c r="B43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1"/>
+    <row r="43" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D43" s="12">
         <v>45643</v>
       </c>
@@ -4311,13 +4347,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="2:30" ht="66" hidden="1" customHeight="1">
-      <c r="B44" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>79</v>
-      </c>
+    <row r="44" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="12">
         <v>45643</v>
       </c>
@@ -4355,12 +4389,12 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="2:30" ht="26.25" hidden="1" customHeight="1">
+    <row r="45" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D45" s="12">
         <v>45643</v>
@@ -4399,11 +4433,13 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="2:30" ht="31.5" hidden="1" customHeight="1">
-      <c r="B46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1"/>
+    <row r="46" spans="2:30" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D46" s="12">
         <v>45643</v>
       </c>
@@ -4441,13 +4477,11 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="2:30" ht="33" hidden="1" customHeight="1">
-      <c r="B47" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>81</v>
-      </c>
+    <row r="47" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="12">
         <v>45643</v>
       </c>
@@ -4485,12 +4519,12 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="2:30" ht="66" hidden="1" customHeight="1">
+    <row r="48" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="12">
         <v>45643</v>
@@ -4529,12 +4563,12 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="2:30" ht="31.5" hidden="1" customHeight="1">
-      <c r="B49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>82</v>
+    <row r="49" spans="2:30" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D49" s="12">
         <v>45643</v>
@@ -4573,11 +4607,13 @@
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="2:30" ht="37.5">
-      <c r="B50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="1"/>
+    <row r="50" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D50" s="12">
         <v>45643</v>
       </c>
@@ -4615,13 +4651,11 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="2:30" ht="82.5" hidden="1" customHeight="1">
-      <c r="B51" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>87</v>
-      </c>
+    <row r="51" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="12">
         <v>45643</v>
       </c>
@@ -4659,12 +4693,12 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="2:30" ht="31.5" hidden="1" customHeight="1">
+    <row r="52" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D52" s="12">
         <v>45643</v>
@@ -4703,12 +4737,12 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="2:30" ht="31.5" hidden="1" customHeight="1">
+    <row r="53" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="12">
         <v>45643</v>
@@ -4747,18 +4781,18 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="2:30" ht="66">
-      <c r="B54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>88</v>
+    <row r="54" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D54" s="12">
-        <v>45645</v>
+        <v>45643</v>
       </c>
       <c r="E54" s="12">
-        <v>45646</v>
+        <v>45644</v>
       </c>
       <c r="F54" s="24">
         <f t="shared" si="1"/>
@@ -4791,9 +4825,12 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="2:30" ht="31.5" hidden="1" customHeight="1">
-      <c r="B55" s="7" t="s">
-        <v>90</v>
+    <row r="55" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+      <c r="B55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D55" s="12">
         <v>45645</v>
@@ -4832,12 +4869,9 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="2:30" ht="82.5" hidden="1" customHeight="1">
-      <c r="B56" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>89</v>
+    <row r="56" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D56" s="12">
         <v>45645</v>
@@ -4876,12 +4910,12 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="2:30" ht="49.5" hidden="1" customHeight="1">
+    <row r="57" spans="2:30" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D57" s="12">
         <v>45645</v>
@@ -4920,12 +4954,12 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="2:30" ht="37.5">
-      <c r="B58" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>106</v>
+    <row r="58" spans="2:30" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D58" s="12">
         <v>45645</v>
@@ -4964,12 +4998,12 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="2:30" ht="31.5" hidden="1" customHeight="1">
-      <c r="B59" s="7" t="s">
-        <v>46</v>
+    <row r="59" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D59" s="12">
         <v>45645</v>
@@ -5008,12 +5042,12 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="2:30" ht="33" hidden="1" customHeight="1">
+    <row r="60" spans="2:30" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D60" s="12">
         <v>45645</v>
@@ -5052,20 +5086,22 @@
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="2:30" ht="37.5">
-      <c r="B61" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="11"/>
+    <row r="61" spans="2:30" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="D61" s="12">
+        <v>45645</v>
+      </c>
+      <c r="E61" s="12">
         <v>45646</v>
-      </c>
-      <c r="E61" s="12">
-        <v>45650</v>
       </c>
       <c r="F61" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61" s="19">
         <v>0</v>
@@ -5094,9 +5130,9 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="2:30" ht="26.25" hidden="1">
-      <c r="B62" s="8" t="s">
-        <v>98</v>
+    <row r="62" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="12">
@@ -5136,9 +5172,9 @@
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="2:30" ht="52.5" hidden="1">
-      <c r="B63" s="17" t="s">
-        <v>83</v>
+    <row r="63" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="12">
@@ -5178,9 +5214,9 @@
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="2:30" ht="26.25" hidden="1">
-      <c r="B64" s="8" t="s">
-        <v>97</v>
+    <row r="64" spans="2:30" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="12">
@@ -5220,6 +5256,48 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
+    <row r="65" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12">
+        <v>45646</v>
+      </c>
+      <c r="E65" s="12">
+        <v>45650</v>
+      </c>
+      <c r="F65" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="I4:AD4"/>
@@ -5233,7 +5311,7 @@
     <mergeCell ref="H4:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G7:H64">
+  <conditionalFormatting sqref="G7:H65">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -5247,12 +5325,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AD64">
+  <conditionalFormatting sqref="I7:AD65">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AD64">
+  <conditionalFormatting sqref="I5:AD65">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>I$5=$E$3</formula>
     </cfRule>
@@ -5294,13 +5372,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5316,13 +5394,13 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5338,14 +5416,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5360,14 +5438,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5382,14 +5460,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>49</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5404,14 +5482,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>53</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5426,14 +5504,14 @@
                   <from>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>57</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>1676400</xdr:colOff>
-                    <xdr:row>57</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5457,7 +5535,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G7:H64</xm:sqref>
+          <xm:sqref>G7:H65</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5471,13 +5549,13 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="69.75" customWidth="1"/>
     <col min="4" max="5" width="63.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
@@ -5485,18 +5563,18 @@
     <col min="8" max="15" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1"/>
-    <row r="2" spans="1:15" ht="54.75" customHeight="1">
-      <c r="B2" s="41" t="s">
+    <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="14"/>
       <c r="F2" s="22"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="32.25" thickBot="1">
+    <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
@@ -5511,18 +5589,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1" thickTop="1">
-      <c r="B4" s="54"/>
-      <c r="C4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="38" t="s">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="61"/>
+      <c r="C4" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="60" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="30"/>
@@ -5535,12 +5613,12 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="B5" s="55"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="62"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -5551,15 +5629,15 @@
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+        <v>125</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -5570,21 +5648,21 @@
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="1:15" ht="27" thickTop="1">
+    <row r="7" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="31"/>
@@ -5596,18 +5674,18 @@
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="1:15" ht="144">
+    <row r="8" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="D8" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="30"/>
@@ -5620,10 +5698,10 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="17.25" thickBot="1">
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10"/>
       <c r="G10"/>
@@ -5636,18 +5714,18 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1">
-      <c r="B11" s="54"/>
-      <c r="C11" s="38" t="s">
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="61"/>
+      <c r="C11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="60" t="s">
         <v>111</v>
       </c>
       <c r="G11"/>
@@ -5657,12 +5735,12 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="62"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -5670,12 +5748,12 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="63"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -5683,21 +5761,21 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>120</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5706,15 +5784,15 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" ht="373.5" customHeight="1">
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>140</v>
@@ -5727,7 +5805,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -5735,18 +5813,18 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="B17" s="54"/>
-      <c r="C17" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="38" t="s">
+    <row r="17" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="61"/>
+      <c r="C17" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="60" t="s">
         <v>111</v>
       </c>
       <c r="G17"/>
@@ -5756,12 +5834,12 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B18" s="55"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+    <row r="18" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="62"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -5769,12 +5847,12 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+    <row r="19" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="63"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -5782,21 +5860,21 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
+    <row r="20" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>124</v>
-      </c>
       <c r="E20" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -5805,15 +5883,15 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="2:12" s="13" customFormat="1" ht="223.5" customHeight="1">
+    <row r="21" spans="2:12" s="13" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -5824,7 +5902,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
+    <row r="22" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
@@ -5832,18 +5910,18 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1">
-      <c r="B23" s="54"/>
-      <c r="C23" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="38" t="s">
+    <row r="23" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="61"/>
+      <c r="C23" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="60" t="s">
         <v>111</v>
       </c>
       <c r="G23"/>
@@ -5853,12 +5931,12 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B24" s="55"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+    <row r="24" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="62"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -5866,28 +5944,28 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="2:12" ht="50.1" customHeight="1" thickBot="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1">
+    <row r="25" spans="2:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="63"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>122</v>
-      </c>
       <c r="F26" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -5896,16 +5974,16 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:12" s="13" customFormat="1" ht="199.5" customHeight="1">
+    <row r="27" spans="2:12" s="13" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="D27" s="29"/>
-      <c r="E27" s="64" t="s">
-        <v>138</v>
+      <c r="E27" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27"/>
@@ -5915,9 +5993,9 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="2:12" ht="16.5" customHeight="1"/>
-    <row r="29" spans="2:12" ht="17.25" customHeight="1"/>
-    <row r="30" spans="2:12" ht="50.1" customHeight="1"/>
+    <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="D17:D19"/>
